--- a/biology/Botanique/Rhododendron_mucronulatum/Rhododendron_mucronulatum.xlsx
+++ b/biology/Botanique/Rhododendron_mucronulatum/Rhododendron_mucronulatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhododendron mucronulatum, l’azalée mucronée, est un arbuste vivace à feuilles caduques du sous-genre Tsutsusi.
 </t>
@@ -511,7 +523,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhododendron mucronulatum pousse dans les sous-bois de sapin et les forêts de cèdres-dicotylédones sur les pentes de montagne. On le trouve en Mongolie, en Corée, en Chine et au Japon.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste ramifié à feuilles caduques pouvant atteindre 3 m de haut. Les jeunes pousses sont couleur brun-rouille, la couleur devient grise avec l'âge. En automne, les feuilles deviennent jaune et violet.
 Les fleurs mesurent jusqu'à 5 cm de diamètre et sont rose violacé.
@@ -576,7 +592,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rhododendron mucronulatum var. ciliatum  
 Rhododendron mucronulatum var. maritimum</t>
@@ -607,7 +625,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">(ru) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en russe intitulé « Рододендрон остроконечный » (voir la liste des auteurs).
 ↑ IPNI. International Plant Names Index. Published on the Internet http://www.ipni.org, The Royal Botanic Gardens, Kew, Harvard University Herbaria &amp; Libraries and Australian National Botanic Gardens., consulté le 1 août 2020
